--- a/records/processing/Processed_Folders.xlsx
+++ b/records/processing/Processed_Folders.xlsx
@@ -457,17 +457,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['1234_DallasWhite_c8', '4321_DallasWhite_c8']</t>
+          <t>['11519-20_DallasWhite_unknown', '24019-32_LunaPearl_unknown']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[(1, 8), (9, 16)]</t>
+          <t>[(1, 28), (29, 104)]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/records/processing/Processed_Folders.xlsx
+++ b/records/processing/Processed_Folders.xlsx
@@ -453,7 +453,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44477</v>
+        <v>44739</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[(1, 5), (6, 10)]</t>
+          <t>[[], []]</t>
         </is>
       </c>
     </row>

--- a/records/processing/Processed_Folders.xlsx
+++ b/records/processing/Processed_Folders.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,31 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['11519-20_DallasWhite_unknown', '24019-32_LunaPearl_unknown']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[(105, 132), (133, 208)]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[[], []]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
